--- a/output/c9cf68f7-1728-415f-8027-f4bf4c988f17/c9cf68f7-1728-415f-8027-f4bf4c988f17_notes_cropped_df.xlsx
+++ b/output/c9cf68f7-1728-415f-8027-f4bf4c988f17/c9cf68f7-1728-415f-8027-f4bf4c988f17_notes_cropped_df.xlsx
@@ -7,20 +7,180 @@
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="5b1fa97a-a26d-3695-a" sheetId="1" r:id="rId1"/>
-    <sheet name="6179dbd7-5cac-33ab-9" sheetId="2" r:id="rId2"/>
-    <sheet name="29c71f19-706c-3b96-9" sheetId="3" r:id="rId3"/>
-    <sheet name="1c24c1ad-8ed2-3d96-8" sheetId="4" r:id="rId4"/>
-    <sheet name="1aa9caad-49d7-3aa1-a" sheetId="5" r:id="rId5"/>
-    <sheet name="15fa5e32-2817-3795-a" sheetId="6" r:id="rId6"/>
-    <sheet name="ad82a938-84a8-34e3-9" sheetId="7" r:id="rId7"/>
+    <sheet name="17__5b1fa97a-a26d-36" sheetId="1" r:id="rId1"/>
+    <sheet name="15__6179dbd7-5cac-33" sheetId="2" r:id="rId2"/>
+    <sheet name="15__29c71f19-706c-3b" sheetId="3" r:id="rId3"/>
+    <sheet name="10__1c24c1ad-8ed2-3d" sheetId="4" r:id="rId4"/>
+    <sheet name="18__5b1fa97a-a26d-36" sheetId="5" r:id="rId5"/>
+    <sheet name="11__1aa9caad-49d7-3a" sheetId="6" r:id="rId6"/>
+    <sheet name="12__15fa5e32-2817-37" sheetId="7" r:id="rId7"/>
+    <sheet name="12__ad82a938-84a8-34" sheetId="8" r:id="rId8"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="89">
+  <si>
+    <t>17.</t>
+  </si>
+  <si>
+    <t>Int thousands of AUD</t>
+  </si>
+  <si>
+    <t>Amount expected to be settled within 12 months</t>
+  </si>
+  <si>
+    <t>Amount expected to be settled after more than 12 months</t>
+  </si>
+  <si>
+    <t>Reconciliation at the beginning and end of the current and previous financial year are set out below</t>
+  </si>
+  <si>
+    <t>Opening Balance</t>
+  </si>
+  <si>
+    <t>Transfer to trade receivables included in opening balance</t>
+  </si>
+  <si>
+    <t>Additions</t>
+  </si>
+  <si>
+    <t>Closing balance</t>
+  </si>
+  <si>
+    <t>2022</t>
+  </si>
+  <si>
+    <t>8810</t>
+  </si>
+  <si>
+    <t>6677</t>
+  </si>
+  <si>
+    <t>(6,677)</t>
+  </si>
+  <si>
+    <t>2021</t>
+  </si>
+  <si>
+    <t>6255</t>
+  </si>
+  <si>
+    <t>(6,255)</t>
+  </si>
+  <si>
+    <t>Balance at 1 April 2021</t>
+  </si>
+  <si>
+    <t>Depreciation expense</t>
+  </si>
+  <si>
+    <t>Balance at 31 March 2022</t>
+  </si>
+  <si>
+    <t>Office Other Premises</t>
+  </si>
+  <si>
+    <t>1146</t>
+  </si>
+  <si>
+    <t>169</t>
+  </si>
+  <si>
+    <t>(498)</t>
+  </si>
+  <si>
+    <t>817</t>
+  </si>
+  <si>
+    <t>Equipment</t>
+  </si>
+  <si>
+    <t>445</t>
+  </si>
+  <si>
+    <t>(138)</t>
+  </si>
+  <si>
+    <t>310</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>1591</t>
+  </si>
+  <si>
+    <t>172</t>
+  </si>
+  <si>
+    <t>(636)</t>
+  </si>
+  <si>
+    <t>1127</t>
+  </si>
+  <si>
+    <t>Right-of-use assets</t>
+  </si>
+  <si>
+    <t>In thousands of AUD</t>
+  </si>
+  <si>
+    <t>Less Accumulated depreciation</t>
+  </si>
+  <si>
+    <t>4196</t>
+  </si>
+  <si>
+    <t>(3,069)</t>
+  </si>
+  <si>
+    <t>4021</t>
+  </si>
+  <si>
+    <t>(2,429)</t>
+  </si>
+  <si>
+    <t>1592</t>
+  </si>
+  <si>
+    <t>Borrowings</t>
+  </si>
+  <si>
+    <t>In thousands OfAUD</t>
+  </si>
+  <si>
+    <t>Likely to be settled in the next 12 months</t>
+  </si>
+  <si>
+    <t>Secured liabilities</t>
+  </si>
+  <si>
+    <t>The Bank of Tokyo - Mitsubishi (UFI) Limited</t>
+  </si>
+  <si>
+    <t>Mizuho Corporate Bank Limited</t>
+  </si>
+  <si>
+    <t>Sumitomo Mitsui Trust Bank Limited</t>
+  </si>
+  <si>
+    <t>Sumitomo Mitsui Banking Corporation</t>
+  </si>
+  <si>
+    <t>Sumitomo Australia Pty Ltd</t>
+  </si>
+  <si>
+    <t>Unlikely to be settled in the next 12 months</t>
+  </si>
+  <si>
+    <t>Sumitomo Australia Pty Limited</t>
+  </si>
+  <si>
+    <t>Total borrowings</t>
+  </si>
   <si>
     <t>18.</t>
   </si>
@@ -28,30 +188,12 @@
     <t>Inthousands ofAUD</t>
   </si>
   <si>
-    <t>Amount expected to be settled within 12 months</t>
-  </si>
-  <si>
-    <t>Amount expected to be settled after more than 12 months</t>
-  </si>
-  <si>
-    <t>Reconciliation at the beginning and end of the current and previous financial year are set out below</t>
-  </si>
-  <si>
-    <t>Opening Balance</t>
-  </si>
-  <si>
     <t>Transfer to revenue = included in opening balance</t>
   </si>
   <si>
     <t>Increase in cash received excluding amounts recognised as revenue during the year</t>
   </si>
   <si>
-    <t>Closing balance</t>
-  </si>
-  <si>
-    <t>2022</t>
-  </si>
-  <si>
     <t>91</t>
   </si>
   <si>
@@ -61,127 +203,10 @@
     <t>(73)</t>
   </si>
   <si>
-    <t>2021</t>
-  </si>
-  <si>
     <t>177</t>
   </si>
   <si>
     <t>(177)</t>
-  </si>
-  <si>
-    <t>Balance at 1 April 2021</t>
-  </si>
-  <si>
-    <t>Additions</t>
-  </si>
-  <si>
-    <t>Depreciation expense</t>
-  </si>
-  <si>
-    <t>Balance at 31 March 2022</t>
-  </si>
-  <si>
-    <t>Office Other Premises</t>
-  </si>
-  <si>
-    <t>1146</t>
-  </si>
-  <si>
-    <t>169</t>
-  </si>
-  <si>
-    <t>(498)</t>
-  </si>
-  <si>
-    <t>817</t>
-  </si>
-  <si>
-    <t>Equipment</t>
-  </si>
-  <si>
-    <t>445</t>
-  </si>
-  <si>
-    <t>(138)</t>
-  </si>
-  <si>
-    <t>310</t>
-  </si>
-  <si>
-    <t>Total</t>
-  </si>
-  <si>
-    <t>1591</t>
-  </si>
-  <si>
-    <t>172</t>
-  </si>
-  <si>
-    <t>(636)</t>
-  </si>
-  <si>
-    <t>1127</t>
-  </si>
-  <si>
-    <t>Right-of-use assets</t>
-  </si>
-  <si>
-    <t>In thousands of AUD</t>
-  </si>
-  <si>
-    <t>Less Accumulated depreciation</t>
-  </si>
-  <si>
-    <t>4196</t>
-  </si>
-  <si>
-    <t>(3,069)</t>
-  </si>
-  <si>
-    <t>4021</t>
-  </si>
-  <si>
-    <t>(2,429)</t>
-  </si>
-  <si>
-    <t>1592</t>
-  </si>
-  <si>
-    <t>Borrowings</t>
-  </si>
-  <si>
-    <t>In thousands OfAUD</t>
-  </si>
-  <si>
-    <t>Likely to be settled in the next 12 months</t>
-  </si>
-  <si>
-    <t>Secured liabilities</t>
-  </si>
-  <si>
-    <t>The Bank of Tokyo - Mitsubishi (UFI) Limited</t>
-  </si>
-  <si>
-    <t>Mizuho Corporate Bank Limited</t>
-  </si>
-  <si>
-    <t>Sumitomo Mitsui Trust Bank Limited</t>
-  </si>
-  <si>
-    <t>Sumitomo Mitsui Banking Corporation</t>
-  </si>
-  <si>
-    <t>Sumitomo Australia Pty Ltd</t>
-  </si>
-  <si>
-    <t>Unlikely to be settled in the next 12 months</t>
-  </si>
-  <si>
-    <t>Sumitomo Australia Pty Limited</t>
-  </si>
-  <si>
-    <t>Total borrowings</t>
   </si>
   <si>
     <t>Charge/credit to profit and loss</t>
@@ -755,13 +780,13 @@
     </row>
     <row r="2" spans="1:4">
       <c r="B2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -769,52 +794,52 @@
         <v>16</v>
       </c>
       <c r="B3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="B4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C5" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
   </sheetData>
@@ -843,12 +868,12 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B3" t="s">
         <v>9</v>
@@ -859,32 +884,32 @@
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="B6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
   </sheetData>
@@ -913,17 +938,17 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B4">
         <v>2022</v>
@@ -934,12 +959,12 @@
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B6">
         <v>16000</v>
@@ -947,7 +972,7 @@
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B7">
         <v>17000</v>
@@ -958,7 +983,7 @@
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B8">
         <v>7500</v>
@@ -969,7 +994,7 @@
     </row>
     <row r="9" spans="1:3">
       <c r="A9" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B9">
         <v>15500</v>
@@ -980,7 +1005,7 @@
     </row>
     <row r="10" spans="1:3">
       <c r="A10" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B10">
         <v>4500</v>
@@ -999,12 +1024,12 @@
     </row>
     <row r="12" spans="1:3">
       <c r="A12" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B13">
         <v>2022</v>
@@ -1015,12 +1040,12 @@
     </row>
     <row r="14" spans="1:3">
       <c r="A14" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B15">
         <v>19000</v>
@@ -1031,7 +1056,7 @@
     </row>
     <row r="16" spans="1:3">
       <c r="A16" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B16">
         <v>34500</v>
@@ -1042,7 +1067,7 @@
     </row>
     <row r="17" spans="1:3">
       <c r="A17" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B17">
         <v>22000</v>
@@ -1053,7 +1078,7 @@
     </row>
     <row r="18" spans="1:3">
       <c r="A18" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B18">
         <v>7000</v>
@@ -1064,7 +1089,7 @@
     </row>
     <row r="19" spans="1:3">
       <c r="A19" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B19">
         <v>7000</v>
@@ -1083,7 +1108,7 @@
     </row>
     <row r="21" spans="1:3">
       <c r="A21" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B21">
         <v>150000</v>
@@ -1098,6 +1123,119 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:C11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" s="1">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" t="s">
+        <v>54</v>
+      </c>
+      <c r="B3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>57</v>
+      </c>
+      <c r="C4" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="B6" t="s">
+        <v>57</v>
+      </c>
+      <c r="C6" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" t="s">
+        <v>58</v>
+      </c>
+      <c r="C8" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" t="s">
+        <v>55</v>
+      </c>
+      <c r="B9" t="s">
+        <v>59</v>
+      </c>
+      <c r="C9" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" t="s">
+        <v>56</v>
+      </c>
+      <c r="B10" t="s">
+        <v>57</v>
+      </c>
+      <c r="C10" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" t="s">
+        <v>8</v>
+      </c>
+      <c r="B11" t="s">
+        <v>57</v>
+      </c>
+      <c r="C11" t="s">
+        <v>58</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E12"/>
   <sheetViews>
@@ -1124,13 +1262,13 @@
     </row>
     <row r="2" spans="1:5">
       <c r="B2" t="s">
-        <v>61</v>
+        <v>69</v>
       </c>
       <c r="D2" t="s">
-        <v>67</v>
+        <v>75</v>
       </c>
       <c r="E2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -1138,100 +1276,100 @@
         <v>16</v>
       </c>
       <c r="C3" t="s">
-        <v>62</v>
+        <v>70</v>
       </c>
       <c r="D3" t="s">
-        <v>68</v>
+        <v>76</v>
       </c>
       <c r="E3" t="s">
-        <v>69</v>
+        <v>77</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>54</v>
+        <v>62</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>55</v>
+        <v>63</v>
       </c>
       <c r="C5" t="s">
-        <v>63</v>
+        <v>71</v>
       </c>
       <c r="E5" t="s">
-        <v>63</v>
+        <v>71</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>56</v>
+        <v>64</v>
       </c>
       <c r="C6" t="s">
-        <v>12</v>
+        <v>59</v>
       </c>
       <c r="E6" t="s">
-        <v>12</v>
+        <v>59</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C7" t="s">
-        <v>64</v>
+        <v>72</v>
       </c>
       <c r="D7" t="s">
-        <v>68</v>
+        <v>76</v>
       </c>
       <c r="E7" t="s">
-        <v>70</v>
+        <v>78</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" t="s">
-        <v>57</v>
+        <v>65</v>
       </c>
       <c r="C8" t="s">
-        <v>65</v>
+        <v>73</v>
       </c>
       <c r="D8" t="s">
-        <v>68</v>
+        <v>76</v>
       </c>
       <c r="E8" t="s">
-        <v>71</v>
+        <v>79</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" t="s">
-        <v>58</v>
+        <v>66</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" t="s">
-        <v>59</v>
+        <v>67</v>
       </c>
       <c r="C10" t="s">
-        <v>66</v>
+        <v>74</v>
       </c>
       <c r="E10" t="s">
-        <v>66</v>
+        <v>74</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" t="s">
-        <v>60</v>
+        <v>68</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="C12" t="s">
-        <v>64</v>
+        <v>72</v>
       </c>
       <c r="D12" t="s">
-        <v>68</v>
+        <v>76</v>
       </c>
       <c r="E12" t="s">
-        <v>70</v>
+        <v>78</v>
       </c>
     </row>
   </sheetData>
@@ -1239,7 +1377,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C8"/>
   <sheetViews>
@@ -1260,7 +1398,7 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="B2">
         <v>2022</v>
@@ -1271,12 +1409,12 @@
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>73</v>
+        <v>81</v>
       </c>
       <c r="B4">
         <v>32000</v>
@@ -1287,7 +1425,7 @@
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>74</v>
+        <v>82</v>
       </c>
       <c r="B5">
         <v>2022</v>
@@ -1298,7 +1436,7 @@
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="B6">
         <v>32000</v>
@@ -1309,12 +1447,12 @@
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>76</v>
+        <v>84</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="B8">
         <v>32000</v>
@@ -1328,7 +1466,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B5"/>
   <sheetViews>
@@ -1346,7 +1484,7 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="B2">
         <v>2021</v>
@@ -1354,12 +1492,12 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="B4">
         <v>3502</v>
@@ -1367,7 +1505,7 @@
     </row>
     <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>80</v>
+        <v>88</v>
       </c>
     </row>
   </sheetData>
